--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mdk-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mdk-Sdc3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H2">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I2">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J2">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.36078833333333</v>
+        <v>28.31444233333334</v>
       </c>
       <c r="N2">
-        <v>103.082365</v>
+        <v>84.94332700000001</v>
       </c>
       <c r="O2">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="P2">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="Q2">
-        <v>45.49449695865722</v>
+        <v>61.73016560779912</v>
       </c>
       <c r="R2">
-        <v>409.450472627915</v>
+        <v>555.5714904701921</v>
       </c>
       <c r="S2">
-        <v>0.00432494381732938</v>
+        <v>0.005413414292757863</v>
       </c>
       <c r="T2">
-        <v>0.00432494381732938</v>
+        <v>0.005413414292757863</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H3">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I3">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J3">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>64.633847</v>
       </c>
       <c r="O3">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="P3">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="Q3">
-        <v>28.52558103190411</v>
+        <v>46.9708241964569</v>
       </c>
       <c r="R3">
-        <v>256.730229287137</v>
+        <v>422.737417768112</v>
       </c>
       <c r="S3">
-        <v>0.002711790294808071</v>
+        <v>0.004119096855550819</v>
       </c>
       <c r="T3">
-        <v>0.00271179029480807</v>
+        <v>0.004119096855550819</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H4">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I4">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J4">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.668551</v>
+        <v>5.413469333333334</v>
       </c>
       <c r="N4">
-        <v>14.005653</v>
+        <v>16.240408</v>
       </c>
       <c r="O4">
-        <v>0.03870932131252083</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="P4">
-        <v>0.03870932131252085</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="Q4">
-        <v>6.181272013040332</v>
+        <v>11.80225817359645</v>
       </c>
       <c r="R4">
-        <v>55.631448117363</v>
+        <v>106.220323562368</v>
       </c>
       <c r="S4">
-        <v>0.0005876239097736133</v>
+        <v>0.001034996625307826</v>
       </c>
       <c r="T4">
-        <v>0.0005876239097736134</v>
+        <v>0.001034996625307826</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.324023666666666</v>
+        <v>2.180165333333334</v>
       </c>
       <c r="H5">
-        <v>3.972071</v>
+        <v>6.540496</v>
       </c>
       <c r="I5">
-        <v>0.01518042398701374</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="J5">
-        <v>0.01518042398701373</v>
+        <v>0.01970539991828544</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.03138866666666</v>
+        <v>47.79503400000001</v>
       </c>
       <c r="N5">
-        <v>180.094166</v>
+        <v>143.385102</v>
       </c>
       <c r="O5">
-        <v>0.4977506538398792</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="P5">
-        <v>0.4977506538398793</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="Q5">
-        <v>79.48297933753176</v>
+        <v>104.201076232288</v>
       </c>
       <c r="R5">
-        <v>715.346814037786</v>
+        <v>937.8096860905921</v>
       </c>
       <c r="S5">
-        <v>0.007556065965102674</v>
+        <v>0.00913789214466893</v>
       </c>
       <c r="T5">
-        <v>0.007556065965102673</v>
+        <v>0.00913789214466893</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>243.529606</v>
       </c>
       <c r="I6">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J6">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.36078833333333</v>
+        <v>28.31444233333334</v>
       </c>
       <c r="N6">
-        <v>103.082365</v>
+        <v>84.94332700000001</v>
       </c>
       <c r="O6">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="P6">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="Q6">
-        <v>2789.289748222021</v>
+        <v>2298.468328515463</v>
       </c>
       <c r="R6">
-        <v>25103.60773399819</v>
+        <v>20686.21495663916</v>
       </c>
       <c r="S6">
-        <v>0.2651644101543905</v>
+        <v>0.2015637116558271</v>
       </c>
       <c r="T6">
-        <v>0.2651644101543905</v>
+        <v>0.2015637116558272</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>243.529606</v>
       </c>
       <c r="I7">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J7">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>64.633847</v>
       </c>
       <c r="O7">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="P7">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="Q7">
         <v>1748.917254908254</v>
@@ -883,10 +883,10 @@
         <v>15740.25529417428</v>
       </c>
       <c r="S7">
-        <v>0.1662611826549005</v>
+        <v>0.1533709422508827</v>
       </c>
       <c r="T7">
-        <v>0.1662611826549005</v>
+        <v>0.1533709422508828</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>243.529606</v>
       </c>
       <c r="I8">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J8">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.668551</v>
+        <v>5.413469333333334</v>
       </c>
       <c r="N8">
-        <v>14.005653</v>
+        <v>16.240408</v>
       </c>
       <c r="O8">
-        <v>0.03870932131252083</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="P8">
-        <v>0.03870932131252085</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="Q8">
-        <v>378.9767952069686</v>
+        <v>439.4466846132499</v>
       </c>
       <c r="R8">
-        <v>3410.791156862718</v>
+        <v>3955.020161519249</v>
       </c>
       <c r="S8">
-        <v>0.03602750787268093</v>
+        <v>0.03853718745069861</v>
       </c>
       <c r="T8">
-        <v>0.03602750787268093</v>
+        <v>0.03853718745069862</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>243.529606</v>
       </c>
       <c r="I9">
-        <v>0.9307191821270077</v>
+        <v>0.733713204346044</v>
       </c>
       <c r="J9">
-        <v>0.9307191821270073</v>
+        <v>0.7337132043460441</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>60.03138866666666</v>
+        <v>47.79503400000001</v>
       </c>
       <c r="N9">
-        <v>180.094166</v>
+        <v>143.385102</v>
       </c>
       <c r="O9">
-        <v>0.4977506538398792</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="P9">
-        <v>0.4977506538398793</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="Q9">
-        <v>4873.140143208733</v>
+        <v>3879.835266258869</v>
       </c>
       <c r="R9">
-        <v>43858.2612888786</v>
+        <v>34918.51739632981</v>
       </c>
       <c r="S9">
-        <v>0.4632660814450356</v>
+        <v>0.3402413629886356</v>
       </c>
       <c r="T9">
-        <v>0.4632660814450356</v>
+        <v>0.3402413629886356</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H10">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I10">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J10">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>34.36078833333333</v>
+        <v>28.31444233333334</v>
       </c>
       <c r="N10">
-        <v>103.082365</v>
+        <v>84.94332700000001</v>
       </c>
       <c r="O10">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="P10">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="Q10">
-        <v>121.1532304499211</v>
+        <v>726.8958385941094</v>
       </c>
       <c r="R10">
-        <v>1090.37907404929</v>
+        <v>6542.062547346985</v>
       </c>
       <c r="S10">
-        <v>0.01151745705552106</v>
+        <v>0.06374498242872702</v>
       </c>
       <c r="T10">
-        <v>0.01151745705552106</v>
+        <v>0.06374498242872702</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H11">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I11">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J11">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>64.633847</v>
       </c>
       <c r="O11">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="P11">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="Q11">
-        <v>75.96449072987357</v>
+        <v>553.0990611732027</v>
       </c>
       <c r="R11">
-        <v>683.6804165688621</v>
+        <v>4977.891550558824</v>
       </c>
       <c r="S11">
-        <v>0.007221580113685002</v>
+        <v>0.04850390945148677</v>
       </c>
       <c r="T11">
-        <v>0.007221580113685</v>
+        <v>0.04850390945148677</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H12">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I12">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J12">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.668551</v>
+        <v>5.413469333333334</v>
       </c>
       <c r="N12">
-        <v>14.005653</v>
+        <v>16.240408</v>
       </c>
       <c r="O12">
-        <v>0.03870932131252083</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="P12">
-        <v>0.03870932131252085</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="Q12">
-        <v>16.46091555534867</v>
+        <v>138.9760138812373</v>
       </c>
       <c r="R12">
-        <v>148.148239998138</v>
+        <v>1250.784124931136</v>
       </c>
       <c r="S12">
-        <v>0.001564860361537395</v>
+        <v>0.01218747321488076</v>
       </c>
       <c r="T12">
-        <v>0.001564860361537395</v>
+        <v>0.01218747321488076</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.525915333333334</v>
+        <v>25.672264</v>
       </c>
       <c r="H13">
-        <v>10.577746</v>
+        <v>77.016792</v>
       </c>
       <c r="I13">
-        <v>0.04042593123510095</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="J13">
-        <v>0.04042593123510094</v>
+        <v>0.2320384702908474</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.03138866666666</v>
+        <v>47.79503400000001</v>
       </c>
       <c r="N13">
-        <v>180.094166</v>
+        <v>143.385102</v>
       </c>
       <c r="O13">
-        <v>0.4977506538398792</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="P13">
-        <v>0.4977506538398793</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="Q13">
-        <v>211.6655937810929</v>
+        <v>1227.006730736976</v>
       </c>
       <c r="R13">
-        <v>1904.990344029836</v>
+        <v>11043.06057663278</v>
       </c>
       <c r="S13">
-        <v>0.02012203370435749</v>
+        <v>0.1076021051957528</v>
       </c>
       <c r="T13">
-        <v>0.02012203370435749</v>
+        <v>0.1076021051957528</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.192675</v>
+        <v>1.608999666666667</v>
       </c>
       <c r="H14">
-        <v>3.578025</v>
+        <v>4.826999</v>
       </c>
       <c r="I14">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="J14">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>34.36078833333333</v>
+        <v>28.31444233333334</v>
       </c>
       <c r="N14">
-        <v>103.082365</v>
+        <v>84.94332700000001</v>
       </c>
       <c r="O14">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="P14">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="Q14">
-        <v>40.98125322545834</v>
+        <v>45.55792827618589</v>
       </c>
       <c r="R14">
-        <v>368.831279029125</v>
+        <v>410.021354485673</v>
       </c>
       <c r="S14">
-        <v>0.00389589136296908</v>
+        <v>0.003995193235761922</v>
       </c>
       <c r="T14">
-        <v>0.00389589136296908</v>
+        <v>0.003995193235761922</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.192675</v>
+        <v>1.608999666666667</v>
       </c>
       <c r="H15">
-        <v>3.578025</v>
+        <v>4.826999</v>
       </c>
       <c r="I15">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="J15">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>64.633847</v>
       </c>
       <c r="O15">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="P15">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="Q15">
-        <v>25.69572449024167</v>
+        <v>34.66527942612812</v>
       </c>
       <c r="R15">
-        <v>231.261520412175</v>
+        <v>311.987514835153</v>
       </c>
       <c r="S15">
-        <v>0.002442769393996394</v>
+        <v>0.003039964614709182</v>
       </c>
       <c r="T15">
-        <v>0.002442769393996393</v>
+        <v>0.003039964614709182</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.192675</v>
+        <v>1.608999666666667</v>
       </c>
       <c r="H16">
-        <v>3.578025</v>
+        <v>4.826999</v>
       </c>
       <c r="I16">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="J16">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.668551</v>
+        <v>5.413469333333334</v>
       </c>
       <c r="N16">
-        <v>14.005653</v>
+        <v>16.240408</v>
       </c>
       <c r="O16">
-        <v>0.03870932131252083</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="P16">
-        <v>0.03870932131252085</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="Q16">
-        <v>5.568064063925001</v>
+        <v>8.710270352843557</v>
       </c>
       <c r="R16">
-        <v>50.11257657532501</v>
+        <v>78.392433175592</v>
       </c>
       <c r="S16">
-        <v>0.0005293291685288943</v>
+        <v>0.0007638453834945011</v>
       </c>
       <c r="T16">
-        <v>0.0005293291685288942</v>
+        <v>0.0007638453834945011</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.192675</v>
+        <v>1.608999666666667</v>
       </c>
       <c r="H17">
-        <v>3.578025</v>
+        <v>4.826999</v>
       </c>
       <c r="I17">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="J17">
-        <v>0.0136744626508778</v>
+        <v>0.01454292544482312</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>60.03138866666666</v>
+        <v>47.79503400000001</v>
       </c>
       <c r="N17">
-        <v>180.094166</v>
+        <v>143.385102</v>
       </c>
       <c r="O17">
-        <v>0.4977506538398792</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="P17">
-        <v>0.4977506538398793</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="Q17">
-        <v>71.59793647801668</v>
+        <v>76.90219377432201</v>
       </c>
       <c r="R17">
-        <v>644.3814283021501</v>
+        <v>692.1197439688981</v>
       </c>
       <c r="S17">
-        <v>0.006806472725383434</v>
+        <v>0.00674392221085752</v>
       </c>
       <c r="T17">
-        <v>0.006806472725383432</v>
+        <v>0.00674392221085752</v>
       </c>
     </row>
   </sheetData>
